--- a/SKRIPSI_BUNDA/Data_LK_diolah.xlsx
+++ b/SKRIPSI_BUNDA/Data_LK_diolah.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DJPB\OneDrive\Documents\kuliah\SKRIPSI_BUNDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82A57E0-3CCF-4349-BA9E-1103F3C99E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DF3475-9193-4DCA-9F0C-5B8B6A3E4E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FDAD1F42-76E9-42DA-9D25-D641B142C50B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{FDAD1F42-76E9-42DA-9D25-D641B142C50B}"/>
   </bookViews>
   <sheets>
     <sheet name="LK_HOD" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="176">
   <si>
     <t>FPNI</t>
   </si>
@@ -518,6 +520,51 @@
   <si>
     <t>capaian</t>
   </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t>Sample Variance</t>
+  </si>
+  <si>
+    <t>Kurtosis</t>
+  </si>
+  <si>
+    <t>Skewness</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>ZSCORE1</t>
+  </si>
 </sst>
 </file>
 
@@ -533,7 +580,7 @@
     <numFmt numFmtId="168" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="169" formatCode="#,##0.0000000000_ ;\-#,##0.0000000000\ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -564,6 +611,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -601,7 +656,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -713,12 +768,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -891,27 +966,6 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="169" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -939,11 +993,37 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1262,9 +1342,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48EB0B7E-8B09-4F55-A2E7-006C03C64C08}">
   <dimension ref="A1:AX92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AY12" sqref="AY12"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1451,7 +1531,7 @@
       <c r="A2" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="90" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="21" t="s">
@@ -1612,7 +1692,7 @@
       <c r="A3" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="80"/>
+      <c r="B3" s="91"/>
       <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
@@ -1771,7 +1851,7 @@
       <c r="A4" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="80"/>
+      <c r="B4" s="91"/>
       <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1930,7 +2010,7 @@
       <c r="A5" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="80"/>
+      <c r="B5" s="91"/>
       <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
@@ -2089,7 +2169,7 @@
       <c r="A6" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="80"/>
+      <c r="B6" s="91"/>
       <c r="C6" s="5" t="s">
         <v>5</v>
       </c>
@@ -2248,7 +2328,7 @@
       <c r="A7" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="80"/>
+      <c r="B7" s="91"/>
       <c r="C7" s="5" t="s">
         <v>131</v>
       </c>
@@ -2406,7 +2486,7 @@
       <c r="A8" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="92" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -2568,7 +2648,7 @@
       <c r="A9" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="81"/>
+      <c r="B9" s="92"/>
       <c r="C9" s="5" t="s">
         <v>2</v>
       </c>
@@ -2728,7 +2808,7 @@
       <c r="A10" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="81"/>
+      <c r="B10" s="92"/>
       <c r="C10" s="5" t="s">
         <v>3</v>
       </c>
@@ -2888,7 +2968,7 @@
       <c r="A11" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="81"/>
+      <c r="B11" s="92"/>
       <c r="C11" s="5" t="s">
         <v>4</v>
       </c>
@@ -3048,7 +3128,7 @@
       <c r="A12" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="81"/>
+      <c r="B12" s="92"/>
       <c r="C12" s="5" t="s">
         <v>5</v>
       </c>
@@ -3208,7 +3288,7 @@
       <c r="A13" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="81"/>
+      <c r="B13" s="92"/>
       <c r="C13" s="5" t="s">
         <v>131</v>
       </c>
@@ -3367,7 +3447,7 @@
       <c r="A14" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="87" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -3528,7 +3608,7 @@
       <c r="A15" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="77"/>
+      <c r="B15" s="88"/>
       <c r="C15" s="5" t="s">
         <v>2</v>
       </c>
@@ -3687,7 +3767,7 @@
       <c r="A16" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="77"/>
+      <c r="B16" s="88"/>
       <c r="C16" s="5" t="s">
         <v>3</v>
       </c>
@@ -3846,7 +3926,7 @@
       <c r="A17" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="77"/>
+      <c r="B17" s="88"/>
       <c r="C17" s="5" t="s">
         <v>4</v>
       </c>
@@ -4005,7 +4085,7 @@
       <c r="A18" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="77"/>
+      <c r="B18" s="88"/>
       <c r="C18" s="5" t="s">
         <v>5</v>
       </c>
@@ -4164,7 +4244,7 @@
       <c r="A19" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="78"/>
+      <c r="B19" s="89"/>
       <c r="C19" s="5" t="s">
         <v>131</v>
       </c>
@@ -4323,7 +4403,7 @@
       <c r="A20" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="76" t="s">
+      <c r="B20" s="87" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -4484,7 +4564,7 @@
       <c r="A21" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="77"/>
+      <c r="B21" s="88"/>
       <c r="C21" s="5" t="s">
         <v>2</v>
       </c>
@@ -4643,7 +4723,7 @@
       <c r="A22" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="77"/>
+      <c r="B22" s="88"/>
       <c r="C22" s="5" t="s">
         <v>3</v>
       </c>
@@ -4802,7 +4882,7 @@
       <c r="A23" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="77"/>
+      <c r="B23" s="88"/>
       <c r="C23" s="5" t="s">
         <v>4</v>
       </c>
@@ -4961,7 +5041,7 @@
       <c r="A24" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="77"/>
+      <c r="B24" s="88"/>
       <c r="C24" s="5" t="s">
         <v>5</v>
       </c>
@@ -5120,7 +5200,7 @@
       <c r="A25" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="78"/>
+      <c r="B25" s="89"/>
       <c r="C25" s="5" t="s">
         <v>131</v>
       </c>
@@ -5278,84 +5358,84 @@
       <c r="A26" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="82" t="s">
+      <c r="B26" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="83" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="84">
+      <c r="C26" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="77">
         <v>840062055130</v>
       </c>
-      <c r="E26" s="85">
+      <c r="E26" s="78">
         <v>1424711407181</v>
       </c>
-      <c r="F26" s="85">
+      <c r="F26" s="78">
         <v>728319096350</v>
       </c>
-      <c r="G26" s="84">
+      <c r="G26" s="77">
         <f t="shared" si="12"/>
         <v>2153030503531</v>
       </c>
-      <c r="H26" s="85">
+      <c r="H26" s="78">
         <v>1667249369925</v>
       </c>
-      <c r="I26" s="85">
+      <c r="I26" s="78">
         <v>82086791545</v>
       </c>
-      <c r="J26" s="86">
+      <c r="J26" s="79">
         <f t="shared" si="13"/>
         <v>1749336161470</v>
       </c>
-      <c r="K26" s="85">
+      <c r="K26" s="78">
         <v>403694342061</v>
       </c>
-      <c r="L26" s="87">
+      <c r="L26" s="80">
         <f t="shared" si="14"/>
         <v>2153030503531</v>
       </c>
-      <c r="M26" s="88" t="str">
+      <c r="M26" s="81" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="N26" s="86">
+      <c r="N26" s="79">
         <v>-146401607484</v>
       </c>
-      <c r="O26" s="86">
+      <c r="O26" s="79">
         <v>616000000</v>
       </c>
-      <c r="P26" s="89">
+      <c r="P26" s="82">
         <v>183</v>
       </c>
-      <c r="Q26" s="86">
+      <c r="Q26" s="79">
         <f t="shared" si="15"/>
         <v>112728000000</v>
       </c>
-      <c r="R26" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="S26" s="86">
+      <c r="R26" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="S26" s="79">
         <v>2461800368336</v>
       </c>
-      <c r="T26" s="86">
+      <c r="T26" s="79">
         <f>-25472163544-28507406056+7134657719</f>
         <v>-46844911881</v>
       </c>
-      <c r="U26" s="91">
+      <c r="U26" s="84">
         <v>44196441226</v>
       </c>
-      <c r="V26" s="86">
+      <c r="V26" s="79">
         <v>-8890501302</v>
       </c>
-      <c r="W26" s="86">
+      <c r="W26" s="79">
         <f>T26-U26+V26</f>
         <v>-99931854409</v>
       </c>
-      <c r="X26" s="86"/>
-      <c r="Y26" s="92">
-        <v>1</v>
-      </c>
-      <c r="Z26" s="93">
+      <c r="X26" s="79"/>
+      <c r="Y26" s="85">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="86">
         <v>1</v>
       </c>
       <c r="AA26" s="11"/>
@@ -5439,81 +5519,81 @@
         <v>59</v>
       </c>
       <c r="B27" s="94"/>
-      <c r="C27" s="83" t="s">
+      <c r="C27" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="84">
+      <c r="D27" s="77">
         <v>991753212184</v>
       </c>
-      <c r="E27" s="85">
+      <c r="E27" s="78">
         <v>1701281476100</v>
       </c>
-      <c r="F27" s="85">
+      <c r="F27" s="78">
         <v>675000320828</v>
       </c>
-      <c r="G27" s="84">
+      <c r="G27" s="77">
         <f t="shared" si="12"/>
         <v>2376281796928</v>
       </c>
-      <c r="H27" s="85">
+      <c r="H27" s="78">
         <v>1747767173359</v>
       </c>
-      <c r="I27" s="85">
+      <c r="I27" s="78">
         <v>249644071180</v>
       </c>
-      <c r="J27" s="86">
+      <c r="J27" s="79">
         <f t="shared" si="13"/>
         <v>1997411244539</v>
       </c>
-      <c r="K27" s="85">
+      <c r="K27" s="78">
         <v>378870552389</v>
       </c>
-      <c r="L27" s="87">
+      <c r="L27" s="80">
         <f t="shared" si="14"/>
         <v>2376281796928</v>
       </c>
-      <c r="M27" s="88" t="str">
+      <c r="M27" s="81" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="N27" s="86">
+      <c r="N27" s="79">
         <v>-142917791945</v>
       </c>
-      <c r="O27" s="86">
+      <c r="O27" s="79">
         <v>616000000</v>
       </c>
-      <c r="P27" s="89">
+      <c r="P27" s="82">
         <v>220</v>
       </c>
-      <c r="Q27" s="86">
+      <c r="Q27" s="79">
         <f t="shared" si="15"/>
         <v>135520000000</v>
       </c>
-      <c r="R27" s="90" t="s">
+      <c r="R27" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="S27" s="86">
+      <c r="S27" s="79">
         <v>3484905171484</v>
       </c>
-      <c r="T27" s="86">
+      <c r="T27" s="79">
         <f>48547464403+2343668187+5705631805</f>
         <v>56596764395</v>
       </c>
-      <c r="U27" s="91">
+      <c r="U27" s="84">
         <v>51880212801</v>
       </c>
-      <c r="V27" s="86">
+      <c r="V27" s="79">
         <v>3729904090</v>
       </c>
-      <c r="W27" s="86">
+      <c r="W27" s="79">
         <f>T27-U27+V27</f>
         <v>8446455684</v>
       </c>
-      <c r="X27" s="86"/>
-      <c r="Y27" s="92">
-        <v>1</v>
-      </c>
-      <c r="Z27" s="93">
+      <c r="X27" s="79"/>
+      <c r="Y27" s="85">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="86">
         <v>1</v>
       </c>
       <c r="AA27" s="11"/>
@@ -5597,81 +5677,81 @@
         <v>60</v>
       </c>
       <c r="B28" s="94"/>
-      <c r="C28" s="83" t="s">
+      <c r="C28" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="84">
+      <c r="D28" s="77">
         <v>1382113970257</v>
       </c>
-      <c r="E28" s="85">
+      <c r="E28" s="78">
         <v>2115994105157</v>
       </c>
-      <c r="F28" s="85">
+      <c r="F28" s="78">
         <v>665672268860</v>
       </c>
-      <c r="G28" s="84">
+      <c r="G28" s="77">
         <f t="shared" si="12"/>
         <v>2781666374017</v>
       </c>
-      <c r="H28" s="85">
+      <c r="H28" s="78">
         <v>2144650311300</v>
       </c>
-      <c r="I28" s="85">
+      <c r="I28" s="78">
         <v>309815366787</v>
       </c>
-      <c r="J28" s="86">
+      <c r="J28" s="79">
         <f t="shared" si="13"/>
         <v>2454465678087</v>
       </c>
-      <c r="K28" s="85">
+      <c r="K28" s="78">
         <v>327200695930</v>
       </c>
-      <c r="L28" s="87">
+      <c r="L28" s="80">
         <f t="shared" si="14"/>
         <v>2781666374017</v>
       </c>
-      <c r="M28" s="88" t="str">
+      <c r="M28" s="81" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="N28" s="86">
+      <c r="N28" s="79">
         <v>-130823462725</v>
       </c>
-      <c r="O28" s="86">
+      <c r="O28" s="79">
         <v>616000000</v>
       </c>
-      <c r="P28" s="89">
+      <c r="P28" s="82">
         <v>400</v>
       </c>
-      <c r="Q28" s="86">
+      <c r="Q28" s="79">
         <f t="shared" si="15"/>
         <v>246400000000</v>
       </c>
-      <c r="R28" s="90" t="s">
+      <c r="R28" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="S28" s="86">
+      <c r="S28" s="79">
         <v>4422880456073</v>
       </c>
-      <c r="T28" s="86">
+      <c r="T28" s="79">
         <f>112487563183-10276650269+3538244109</f>
         <v>105749157023</v>
       </c>
-      <c r="U28" s="86">
+      <c r="U28" s="79">
         <v>91848277580</v>
       </c>
-      <c r="V28" s="86">
+      <c r="V28" s="79">
         <v>-7356244381</v>
       </c>
-      <c r="W28" s="86">
+      <c r="W28" s="79">
         <f>T28-U28+V28</f>
         <v>6544635062</v>
       </c>
-      <c r="X28" s="86"/>
-      <c r="Y28" s="92">
-        <v>1</v>
-      </c>
-      <c r="Z28" s="93">
+      <c r="X28" s="79"/>
+      <c r="Y28" s="85">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="86">
         <v>1</v>
       </c>
       <c r="AA28" s="11"/>
@@ -5755,82 +5835,82 @@
         <v>61</v>
       </c>
       <c r="B29" s="94"/>
-      <c r="C29" s="83" t="s">
+      <c r="C29" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="84">
+      <c r="D29" s="77">
         <v>796506004780</v>
       </c>
-      <c r="E29" s="85">
+      <c r="E29" s="78">
         <v>1160620662903</v>
       </c>
-      <c r="F29" s="85">
+      <c r="F29" s="78">
         <v>565028961975</v>
       </c>
-      <c r="G29" s="84">
+      <c r="G29" s="77">
         <f t="shared" si="12"/>
         <v>1725649624878</v>
       </c>
-      <c r="H29" s="85">
+      <c r="H29" s="78">
         <v>1573757483662</v>
       </c>
-      <c r="I29" s="85">
+      <c r="I29" s="78">
         <v>149702039069</v>
       </c>
-      <c r="J29" s="86">
+      <c r="J29" s="79">
         <f t="shared" si="13"/>
         <v>1723459522731</v>
       </c>
-      <c r="K29" s="85">
+      <c r="K29" s="78">
         <v>2190102147</v>
       </c>
-      <c r="L29" s="87">
+      <c r="L29" s="80">
         <f t="shared" si="14"/>
         <v>1725649624878</v>
       </c>
-      <c r="M29" s="88" t="str">
+      <c r="M29" s="81" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="N29" s="86">
+      <c r="N29" s="79">
         <f>-144281030930</f>
         <v>-144281030930</v>
       </c>
-      <c r="O29" s="86">
+      <c r="O29" s="79">
         <v>616000000</v>
       </c>
-      <c r="P29" s="89">
+      <c r="P29" s="82">
         <v>358</v>
       </c>
-      <c r="Q29" s="86">
+      <c r="Q29" s="79">
         <f t="shared" si="15"/>
         <v>220528000000</v>
       </c>
-      <c r="R29" s="90" t="s">
+      <c r="R29" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="S29" s="86">
+      <c r="S29" s="79">
         <v>2234124975480</v>
       </c>
-      <c r="T29" s="86">
+      <c r="T29" s="79">
         <f>-177341512202+3979071129+2855172580+0-3187909101</f>
         <v>-173695177594</v>
       </c>
-      <c r="U29" s="86">
+      <c r="U29" s="79">
         <v>106595964030</v>
       </c>
-      <c r="V29" s="86">
+      <c r="V29" s="79">
         <v>-18517761173</v>
       </c>
-      <c r="W29" s="86">
+      <c r="W29" s="79">
         <f>T29-U29+V29</f>
         <v>-298808902797</v>
       </c>
-      <c r="X29" s="86"/>
-      <c r="Y29" s="92">
-        <v>1</v>
-      </c>
-      <c r="Z29" s="93">
+      <c r="X29" s="79"/>
+      <c r="Y29" s="85">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="86">
         <v>1</v>
       </c>
       <c r="AA29" s="11"/>
@@ -5914,81 +5994,81 @@
         <v>62</v>
       </c>
       <c r="B30" s="94"/>
-      <c r="C30" s="83" t="s">
+      <c r="C30" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="84">
+      <c r="D30" s="77">
         <v>44876814</v>
       </c>
-      <c r="E30" s="85">
+      <c r="E30" s="78">
         <v>65009326</v>
       </c>
-      <c r="F30" s="85">
+      <c r="F30" s="78">
         <v>36139795</v>
       </c>
-      <c r="G30" s="84">
+      <c r="G30" s="77">
         <f t="shared" si="12"/>
         <v>101149121</v>
       </c>
-      <c r="H30" s="85">
+      <c r="H30" s="78">
         <v>99946499</v>
       </c>
-      <c r="I30" s="85">
+      <c r="I30" s="78">
         <v>20285489</v>
       </c>
-      <c r="J30" s="86">
+      <c r="J30" s="79">
         <f t="shared" si="13"/>
         <v>120231988</v>
       </c>
-      <c r="K30" s="85">
+      <c r="K30" s="78">
         <v>-19082867</v>
       </c>
-      <c r="L30" s="87">
+      <c r="L30" s="80">
         <f t="shared" si="14"/>
         <v>101149121</v>
       </c>
-      <c r="M30" s="88" t="str">
+      <c r="M30" s="81" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="N30" s="86">
+      <c r="N30" s="79">
         <v>-120043058</v>
       </c>
-      <c r="O30" s="86">
+      <c r="O30" s="79">
         <v>616000000</v>
       </c>
-      <c r="P30" s="89">
+      <c r="P30" s="82">
         <v>248</v>
       </c>
-      <c r="Q30" s="86">
+      <c r="Q30" s="79">
         <f>O30*P30</f>
         <v>152768000000</v>
       </c>
-      <c r="R30" s="90" t="s">
+      <c r="R30" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="S30" s="86">
+      <c r="S30" s="79">
         <v>68013921</v>
       </c>
-      <c r="T30" s="86">
+      <c r="T30" s="79">
         <f>-9373742+121510+242309+16159-884555</f>
         <v>-9878319</v>
       </c>
-      <c r="U30" s="91">
+      <c r="U30" s="84">
         <v>8570512</v>
       </c>
-      <c r="V30" s="86">
+      <c r="V30" s="79">
         <v>-467795</v>
       </c>
-      <c r="W30" s="86">
+      <c r="W30" s="79">
         <f>T30-U30+V30</f>
         <v>-18916626</v>
       </c>
-      <c r="X30" s="86"/>
-      <c r="Y30" s="92">
+      <c r="X30" s="79"/>
+      <c r="Y30" s="85">
         <v>14034</v>
       </c>
-      <c r="Z30" s="93">
+      <c r="Z30" s="86">
         <v>1</v>
       </c>
       <c r="AA30" s="11"/>
@@ -6072,81 +6152,81 @@
         <v>63</v>
       </c>
       <c r="B31" s="95"/>
-      <c r="C31" s="83" t="s">
+      <c r="C31" s="76" t="s">
         <v>131</v>
       </c>
-      <c r="D31" s="84">
+      <c r="D31" s="77">
         <v>30978608</v>
       </c>
-      <c r="E31" s="85">
+      <c r="E31" s="78">
         <v>58924100</v>
       </c>
-      <c r="F31" s="85">
+      <c r="F31" s="78">
         <v>34885724</v>
       </c>
-      <c r="G31" s="84">
+      <c r="G31" s="77">
         <f t="shared" si="12"/>
         <v>93809824</v>
       </c>
-      <c r="H31" s="85">
+      <c r="H31" s="78">
         <v>41756304</v>
       </c>
-      <c r="I31" s="85">
+      <c r="I31" s="78">
         <v>15330440</v>
       </c>
-      <c r="J31" s="86">
+      <c r="J31" s="79">
         <f t="shared" si="13"/>
         <v>57086744</v>
       </c>
-      <c r="K31" s="85">
+      <c r="K31" s="78">
         <v>36723080</v>
       </c>
-      <c r="L31" s="87">
+      <c r="L31" s="80">
         <f t="shared" si="14"/>
         <v>93809824</v>
       </c>
-      <c r="M31" s="88" t="str">
+      <c r="M31" s="81" t="str">
         <f t="shared" si="0"/>
         <v>OK</v>
       </c>
-      <c r="N31" s="86">
+      <c r="N31" s="79">
         <v>-120005729</v>
       </c>
-      <c r="O31" s="86">
+      <c r="O31" s="79">
         <v>616000000</v>
       </c>
-      <c r="P31" s="89">
+      <c r="P31" s="82">
         <v>300</v>
       </c>
-      <c r="Q31" s="86">
+      <c r="Q31" s="79">
         <f t="shared" si="15"/>
         <v>184800000000</v>
       </c>
-      <c r="R31" s="90" t="s">
+      <c r="R31" s="83" t="s">
         <v>131</v>
       </c>
-      <c r="S31" s="86">
+      <c r="S31" s="79">
         <v>102389792</v>
       </c>
-      <c r="T31" s="86">
+      <c r="T31" s="79">
         <f>903956+185264+262028+0+1163876</f>
         <v>2515124</v>
       </c>
-      <c r="U31" s="86">
+      <c r="U31" s="79">
         <v>6890812</v>
       </c>
-      <c r="V31" s="86">
+      <c r="V31" s="79">
         <v>4413017</v>
       </c>
-      <c r="W31" s="86">
+      <c r="W31" s="79">
         <f t="shared" ref="W31:W48" si="34">T31-U31+V31</f>
         <v>37329</v>
       </c>
-      <c r="X31" s="86"/>
-      <c r="Y31" s="92">
+      <c r="X31" s="79"/>
+      <c r="Y31" s="85">
         <v>14197</v>
       </c>
-      <c r="Z31" s="93">
+      <c r="Z31" s="86">
         <v>1</v>
       </c>
       <c r="AA31" s="11"/>
@@ -6229,7 +6309,7 @@
       <c r="A32" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="76" t="s">
+      <c r="B32" s="87" t="s">
         <v>10</v>
       </c>
       <c r="C32" s="5" t="s">
@@ -6389,7 +6469,7 @@
       <c r="A33" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="77"/>
+      <c r="B33" s="88"/>
       <c r="C33" s="5" t="s">
         <v>2</v>
       </c>
@@ -6547,7 +6627,7 @@
       <c r="A34" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="77"/>
+      <c r="B34" s="88"/>
       <c r="C34" s="5" t="s">
         <v>3</v>
       </c>
@@ -6706,7 +6786,7 @@
       <c r="A35" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="77"/>
+      <c r="B35" s="88"/>
       <c r="C35" s="5" t="s">
         <v>4</v>
       </c>
@@ -6864,7 +6944,7 @@
       <c r="A36" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="77"/>
+      <c r="B36" s="88"/>
       <c r="C36" s="5" t="s">
         <v>5</v>
       </c>
@@ -7022,7 +7102,7 @@
       <c r="A37" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="78"/>
+      <c r="B37" s="89"/>
       <c r="C37" s="5" t="s">
         <v>131</v>
       </c>
@@ -7180,7 +7260,7 @@
       <c r="A38" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B38" s="76" t="s">
+      <c r="B38" s="87" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="5" t="s">
@@ -7340,7 +7420,7 @@
       <c r="A39" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="B39" s="77"/>
+      <c r="B39" s="88"/>
       <c r="C39" s="5" t="s">
         <v>2</v>
       </c>
@@ -7499,7 +7579,7 @@
       <c r="A40" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="77"/>
+      <c r="B40" s="88"/>
       <c r="C40" s="5" t="s">
         <v>3</v>
       </c>
@@ -7658,7 +7738,7 @@
       <c r="A41" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B41" s="77"/>
+      <c r="B41" s="88"/>
       <c r="C41" s="5" t="s">
         <v>4</v>
       </c>
@@ -7817,7 +7897,7 @@
       <c r="A42" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B42" s="77"/>
+      <c r="B42" s="88"/>
       <c r="C42" s="5" t="s">
         <v>5</v>
       </c>
@@ -7976,7 +8056,7 @@
       <c r="A43" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="B43" s="78"/>
+      <c r="B43" s="89"/>
       <c r="C43" s="5" t="s">
         <v>131</v>
       </c>
@@ -8135,7 +8215,7 @@
       <c r="A44" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="B44" s="76" t="s">
+      <c r="B44" s="87" t="s">
         <v>12</v>
       </c>
       <c r="C44" s="5" t="s">
@@ -8296,7 +8376,7 @@
       <c r="A45" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B45" s="77"/>
+      <c r="B45" s="88"/>
       <c r="C45" s="5" t="s">
         <v>2</v>
       </c>
@@ -8455,7 +8535,7 @@
       <c r="A46" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="B46" s="77"/>
+      <c r="B46" s="88"/>
       <c r="C46" s="5" t="s">
         <v>3</v>
       </c>
@@ -8614,7 +8694,7 @@
       <c r="A47" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="B47" s="77"/>
+      <c r="B47" s="88"/>
       <c r="C47" s="5" t="s">
         <v>4</v>
       </c>
@@ -8773,7 +8853,7 @@
       <c r="A48" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B48" s="77"/>
+      <c r="B48" s="88"/>
       <c r="C48" s="5" t="s">
         <v>5</v>
       </c>
@@ -8932,7 +9012,7 @@
       <c r="A49" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B49" s="78"/>
+      <c r="B49" s="89"/>
       <c r="C49" s="5" t="s">
         <v>131</v>
       </c>
@@ -9090,7 +9170,7 @@
       <c r="A50" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="B50" s="76" t="s">
+      <c r="B50" s="87" t="s">
         <v>13</v>
       </c>
       <c r="C50" s="5" t="s">
@@ -9250,7 +9330,7 @@
       <c r="A51" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="B51" s="77"/>
+      <c r="B51" s="88"/>
       <c r="C51" s="5" t="s">
         <v>2</v>
       </c>
@@ -9409,7 +9489,7 @@
       <c r="A52" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="B52" s="77"/>
+      <c r="B52" s="88"/>
       <c r="C52" s="5" t="s">
         <v>3</v>
       </c>
@@ -9568,7 +9648,7 @@
       <c r="A53" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="B53" s="77"/>
+      <c r="B53" s="88"/>
       <c r="C53" s="5" t="s">
         <v>4</v>
       </c>
@@ -9726,7 +9806,7 @@
       <c r="A54" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="B54" s="77"/>
+      <c r="B54" s="88"/>
       <c r="C54" s="5" t="s">
         <v>5</v>
       </c>
@@ -9885,7 +9965,7 @@
       <c r="A55" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="B55" s="78"/>
+      <c r="B55" s="89"/>
       <c r="C55" s="5" t="s">
         <v>131</v>
       </c>
@@ -10044,7 +10124,7 @@
       <c r="A56" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="B56" s="76" t="s">
+      <c r="B56" s="87" t="s">
         <v>14</v>
       </c>
       <c r="C56" s="5" t="s">
@@ -10205,7 +10285,7 @@
       <c r="A57" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="B57" s="77"/>
+      <c r="B57" s="88"/>
       <c r="C57" s="5" t="s">
         <v>2</v>
       </c>
@@ -10364,7 +10444,7 @@
       <c r="A58" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="B58" s="77"/>
+      <c r="B58" s="88"/>
       <c r="C58" s="5" t="s">
         <v>3</v>
       </c>
@@ -10523,7 +10603,7 @@
       <c r="A59" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="B59" s="77"/>
+      <c r="B59" s="88"/>
       <c r="C59" s="5" t="s">
         <v>4</v>
       </c>
@@ -10682,7 +10762,7 @@
       <c r="A60" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B60" s="77"/>
+      <c r="B60" s="88"/>
       <c r="C60" s="5" t="s">
         <v>5</v>
       </c>
@@ -10841,7 +10921,7 @@
       <c r="A61" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="B61" s="78"/>
+      <c r="B61" s="89"/>
       <c r="C61" s="5" t="s">
         <v>131</v>
       </c>
@@ -10999,7 +11079,7 @@
       <c r="A62" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="B62" s="76" t="s">
+      <c r="B62" s="87" t="s">
         <v>15</v>
       </c>
       <c r="C62" s="5" t="s">
@@ -11159,7 +11239,7 @@
       <c r="A63" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="B63" s="77"/>
+      <c r="B63" s="88"/>
       <c r="C63" s="5" t="s">
         <v>2</v>
       </c>
@@ -11317,7 +11397,7 @@
       <c r="A64" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="B64" s="77"/>
+      <c r="B64" s="88"/>
       <c r="C64" s="5" t="s">
         <v>3</v>
       </c>
@@ -11475,7 +11555,7 @@
       <c r="A65" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="B65" s="77"/>
+      <c r="B65" s="88"/>
       <c r="C65" s="5" t="s">
         <v>4</v>
       </c>
@@ -11634,7 +11714,7 @@
       <c r="A66" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="B66" s="77"/>
+      <c r="B66" s="88"/>
       <c r="C66" s="5" t="s">
         <v>5</v>
       </c>
@@ -11792,7 +11872,7 @@
       <c r="A67" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="B67" s="78"/>
+      <c r="B67" s="89"/>
       <c r="C67" s="5" t="s">
         <v>131</v>
       </c>
@@ -11950,7 +12030,7 @@
       <c r="A68" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="B68" s="76" t="s">
+      <c r="B68" s="87" t="s">
         <v>16</v>
       </c>
       <c r="C68" s="5" t="s">
@@ -12110,7 +12190,7 @@
       <c r="A69" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="B69" s="77"/>
+      <c r="B69" s="88"/>
       <c r="C69" s="5" t="s">
         <v>2</v>
       </c>
@@ -12268,7 +12348,7 @@
       <c r="A70" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="B70" s="77"/>
+      <c r="B70" s="88"/>
       <c r="C70" s="5" t="s">
         <v>3</v>
       </c>
@@ -12426,7 +12506,7 @@
       <c r="A71" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B71" s="77"/>
+      <c r="B71" s="88"/>
       <c r="C71" s="5" t="s">
         <v>4</v>
       </c>
@@ -12584,7 +12664,7 @@
       <c r="A72" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="B72" s="77"/>
+      <c r="B72" s="88"/>
       <c r="C72" s="5" t="s">
         <v>5</v>
       </c>
@@ -12742,7 +12822,7 @@
       <c r="A73" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="B73" s="78"/>
+      <c r="B73" s="89"/>
       <c r="C73" s="5" t="s">
         <v>131</v>
       </c>
@@ -12900,7 +12980,7 @@
       <c r="A74" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="B74" s="76" t="s">
+      <c r="B74" s="87" t="s">
         <v>126</v>
       </c>
       <c r="C74" s="5" t="s">
@@ -13060,7 +13140,7 @@
       <c r="A75" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="B75" s="77"/>
+      <c r="B75" s="88"/>
       <c r="C75" s="5" t="s">
         <v>2</v>
       </c>
@@ -13218,7 +13298,7 @@
       <c r="A76" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="B76" s="77"/>
+      <c r="B76" s="88"/>
       <c r="C76" s="5" t="s">
         <v>3</v>
       </c>
@@ -13376,7 +13456,7 @@
       <c r="A77" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="B77" s="77"/>
+      <c r="B77" s="88"/>
       <c r="C77" s="5" t="s">
         <v>4</v>
       </c>
@@ -13534,7 +13614,7 @@
       <c r="A78" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="B78" s="77"/>
+      <c r="B78" s="88"/>
       <c r="C78" s="5" t="s">
         <v>5</v>
       </c>
@@ -13692,7 +13772,7 @@
       <c r="A79" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="B79" s="78"/>
+      <c r="B79" s="89"/>
       <c r="C79" s="5" t="s">
         <v>131</v>
       </c>
@@ -13850,7 +13930,7 @@
       <c r="A80" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="B80" s="76" t="s">
+      <c r="B80" s="87" t="s">
         <v>127</v>
       </c>
       <c r="C80" s="5" t="s">
@@ -14010,7 +14090,7 @@
       <c r="A81" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="B81" s="77"/>
+      <c r="B81" s="88"/>
       <c r="C81" s="5" t="s">
         <v>2</v>
       </c>
@@ -14168,7 +14248,7 @@
       <c r="A82" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="B82" s="77"/>
+      <c r="B82" s="88"/>
       <c r="C82" s="5" t="s">
         <v>3</v>
       </c>
@@ -14326,7 +14406,7 @@
       <c r="A83" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="B83" s="77"/>
+      <c r="B83" s="88"/>
       <c r="C83" s="5" t="s">
         <v>4</v>
       </c>
@@ -14484,7 +14564,7 @@
       <c r="A84" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="B84" s="77"/>
+      <c r="B84" s="88"/>
       <c r="C84" s="5" t="s">
         <v>5</v>
       </c>
@@ -14642,7 +14722,7 @@
       <c r="A85" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="B85" s="78"/>
+      <c r="B85" s="89"/>
       <c r="C85" s="5" t="s">
         <v>131</v>
       </c>
@@ -14800,7 +14880,7 @@
       <c r="A86" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="B86" s="76" t="s">
+      <c r="B86" s="87" t="s">
         <v>128</v>
       </c>
       <c r="C86" s="5" t="s">
@@ -14961,7 +15041,7 @@
       <c r="A87" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="B87" s="77"/>
+      <c r="B87" s="88"/>
       <c r="C87" s="5" t="s">
         <v>2</v>
       </c>
@@ -15120,7 +15200,7 @@
       <c r="A88" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="B88" s="77"/>
+      <c r="B88" s="88"/>
       <c r="C88" s="5" t="s">
         <v>3</v>
       </c>
@@ -15278,7 +15358,7 @@
       <c r="A89" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="B89" s="77"/>
+      <c r="B89" s="88"/>
       <c r="C89" s="5" t="s">
         <v>4</v>
       </c>
@@ -15436,7 +15516,7 @@
       <c r="A90" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="B90" s="77"/>
+      <c r="B90" s="88"/>
       <c r="C90" s="5" t="s">
         <v>5</v>
       </c>
@@ -15594,7 +15674,7 @@
       <c r="A91" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="B91" s="78"/>
+      <c r="B91" s="89"/>
       <c r="C91" s="5" t="s">
         <v>131</v>
       </c>
@@ -15827,7 +15907,7 @@
   <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15956,4 +16036,2700 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CACF753C-DDA0-4FF6-A3BB-0EC7E31CCB3F}">
+  <dimension ref="A1:G91"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>LK_HOD!B2</f>
+        <v>FPNI</v>
+      </c>
+      <c r="B2">
+        <f>LK_HOD!AC2</f>
+        <v>2.2145307522666014E-2</v>
+      </c>
+      <c r="C2">
+        <f>LK_HOD!AE2</f>
+        <v>0.40647741728457315</v>
+      </c>
+      <c r="D2">
+        <f>LK_HOD!AF2</f>
+        <v>1.0900616678918567</v>
+      </c>
+      <c r="E2">
+        <f>LK_HOD!AN2</f>
+        <v>1.7477761102935601</v>
+      </c>
+      <c r="F2">
+        <f>LN(E2)</f>
+        <v>0.55834418567388322</v>
+      </c>
+      <c r="G2">
+        <f>IF(ISNUMBER(F2),1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <f>LK_HOD!AC3</f>
+        <v>-1.8206085378824215E-2</v>
+      </c>
+      <c r="C3">
+        <f>LK_HOD!AE3</f>
+        <v>0.47918473547267998</v>
+      </c>
+      <c r="D3">
+        <f>LK_HOD!AF3</f>
+        <v>1.0005526474943172</v>
+      </c>
+      <c r="E3">
+        <f>LK_HOD!AN3</f>
+        <v>1.911722732678395</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="0">LN(E3)</f>
+        <v>0.6480047898240785</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G66" si="1">IF(ISNUMBER(F3),1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <f>LK_HOD!AC4</f>
+        <v>5.9735700004876387E-2</v>
+      </c>
+      <c r="C4">
+        <f>LK_HOD!AE4</f>
+        <v>0.42091440548491776</v>
+      </c>
+      <c r="D4">
+        <f>LK_HOD!AF4</f>
+        <v>0.90984541863753843</v>
+      </c>
+      <c r="E4">
+        <f>LK_HOD!AN4</f>
+        <v>2.0491978095072181</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0.71744840413212319</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <f>LK_HOD!AC5</f>
+        <v>-3.3126335739344329E-2</v>
+      </c>
+      <c r="C5">
+        <f>LK_HOD!AE5</f>
+        <v>0.48033489816286551</v>
+      </c>
+      <c r="D5">
+        <f>LK_HOD!AF5</f>
+        <v>0.67071252873099718</v>
+      </c>
+      <c r="E5">
+        <f>LK_HOD!AN5</f>
+        <v>1.519661252076784</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0.41848744954529898</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <f>LK_HOD!AC6</f>
+        <v>-5.1964019251381853E-2</v>
+      </c>
+      <c r="C6">
+        <f>LK_HOD!AE6</f>
+        <v>0.59343725090780264</v>
+      </c>
+      <c r="D6">
+        <f>LK_HOD!AF6</f>
+        <v>0.56971270044765765</v>
+      </c>
+      <c r="E6">
+        <f>LK_HOD!AN6</f>
+        <v>2.6045958747717752</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0.9572775287261216</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <f>LK_HOD!AC7</f>
+        <v>9.140607080051992E-2</v>
+      </c>
+      <c r="C7">
+        <f>LK_HOD!AE7</f>
+        <v>0.88340130102868752</v>
+      </c>
+      <c r="D7">
+        <f>LK_HOD!AF7</f>
+        <v>0.74919718632923005</v>
+      </c>
+      <c r="E7">
+        <f>LK_HOD!AN7</f>
+        <v>3.3412821794235934</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>1.2063546193781778</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f>LK_HOD!B8</f>
+        <v>KRAS</v>
+      </c>
+      <c r="B8">
+        <f>LK_HOD!AC8</f>
+        <v>-9.8236810048720508E-2</v>
+      </c>
+      <c r="C8">
+        <f>LK_HOD!AE8</f>
+        <v>0.4274132891684041</v>
+      </c>
+      <c r="D8">
+        <f>LK_HOD!AF8</f>
+        <v>1.1398935791445999</v>
+      </c>
+      <c r="E8">
+        <f>LK_HOD!AN8</f>
+        <v>0.29981591439723132</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>-1.2045866113428216</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <f>LK_HOD!AC9</f>
+        <v>-4.6468362362229461E-2</v>
+      </c>
+      <c r="C9">
+        <f>LK_HOD!AE9</f>
+        <v>0.39150674973658223</v>
+      </c>
+      <c r="D9">
+        <f>LK_HOD!AF9</f>
+        <v>1.2206206899901717</v>
+      </c>
+      <c r="E9">
+        <f>LK_HOD!AN9</f>
+        <v>0.17274205365787279</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>-1.7559558164784681</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <f>LK_HOD!AC10</f>
+        <v>-9.3062320958686551E-2</v>
+      </c>
+      <c r="C10">
+        <f>LK_HOD!AE10</f>
+        <v>0.2972461569737439</v>
+      </c>
+      <c r="D10">
+        <f>LK_HOD!AF10</f>
+        <v>1.3876719032692242</v>
+      </c>
+      <c r="E10">
+        <f>LK_HOD!AN10</f>
+        <v>4.6650777688837075E-2</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>-3.0650656811131181</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <f>LK_HOD!AC11</f>
+        <v>-1.4554486810275313</v>
+      </c>
+      <c r="C11">
+        <f>LK_HOD!AE11</f>
+        <v>0.1725958685506247</v>
+      </c>
+      <c r="D11">
+        <f>LK_HOD!AF11</f>
+        <v>8.4690617440387044</v>
+      </c>
+      <c r="E11">
+        <f>LK_HOD!AN11</f>
+        <v>-1.513385253641353</v>
+      </c>
+      <c r="F11" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f>LK_HOD!AC12</f>
+        <v>5.0443146440008649E-2</v>
+      </c>
+      <c r="C12">
+        <f>LK_HOD!AE12</f>
+        <v>0.74836373831414293</v>
+      </c>
+      <c r="D12">
+        <f>LK_HOD!AF12</f>
+        <v>6.7694903091662342</v>
+      </c>
+      <c r="E12">
+        <f>LK_HOD!AN12</f>
+        <v>-0.29737370269693109</v>
+      </c>
+      <c r="F12" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <f>LK_HOD!AC13</f>
+        <v>0.1190061654973482</v>
+      </c>
+      <c r="C13">
+        <f>LK_HOD!AE13</f>
+        <v>0.40790124154295965</v>
+      </c>
+      <c r="D13">
+        <f>LK_HOD!AF13</f>
+        <v>6.2278935604167023</v>
+      </c>
+      <c r="E13">
+        <f>LK_HOD!AN13</f>
+        <v>1.5238134896493443</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0.42121606765529901</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f>LK_HOD!B14</f>
+        <v>BRNA</v>
+      </c>
+      <c r="B14">
+        <f>LK_HOD!AC14</f>
+        <v>1.2315784184185148E-2</v>
+      </c>
+      <c r="C14">
+        <f>LK_HOD!AE14</f>
+        <v>0.96892513866522001</v>
+      </c>
+      <c r="D14">
+        <f>LK_HOD!AF14</f>
+        <v>1.0311083358002628</v>
+      </c>
+      <c r="E14">
+        <f>LK_HOD!AN14</f>
+        <v>1.7110816785039282</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0.53712573106109973</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f>LK_HOD!AC15</f>
+        <v>-0.20900031612859804</v>
+      </c>
+      <c r="C15">
+        <f>LK_HOD!AE15</f>
+        <v>0.73696975827696976</v>
+      </c>
+      <c r="D15">
+        <f>LK_HOD!AF15</f>
+        <v>1.3034106406810906</v>
+      </c>
+      <c r="E15">
+        <f>LK_HOD!AN15</f>
+        <v>1.170867367004923</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0.15774481347385169</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f>LK_HOD!AC16</f>
+        <v>-2.1065614763600683E-2</v>
+      </c>
+      <c r="C16">
+        <f>LK_HOD!AE16</f>
+        <v>0.6245692975713284</v>
+      </c>
+      <c r="D16">
+        <f>LK_HOD!AF16</f>
+        <v>1.1912120508219544</v>
+      </c>
+      <c r="E16">
+        <f>LK_HOD!AN16</f>
+        <v>1.1975740445001262</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>0.18029788095933386</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <f>LK_HOD!AC17</f>
+        <v>-0.17098686987500883</v>
+      </c>
+      <c r="C17">
+        <f>LK_HOD!AE17</f>
+        <v>0.49869020885564042</v>
+      </c>
+      <c r="D17">
+        <f>LK_HOD!AF17</f>
+        <v>1.3727809779301794</v>
+      </c>
+      <c r="E17">
+        <f>LK_HOD!AN17</f>
+        <v>0.80111469462150753</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>-0.22175115287411418</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <f>LK_HOD!AC18</f>
+        <v>-0.24396452777127414</v>
+      </c>
+      <c r="C18">
+        <f>LK_HOD!AE18</f>
+        <v>0.44151038660365172</v>
+      </c>
+      <c r="D18">
+        <f>LK_HOD!AF18</f>
+        <v>1.5637905983731675</v>
+      </c>
+      <c r="E18">
+        <f>LK_HOD!AN18</f>
+        <v>0.71108111624559056</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>-0.3409687681398445</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <f>LK_HOD!AC19</f>
+        <v>-0.22710324243224736</v>
+      </c>
+      <c r="C19">
+        <f>LK_HOD!AE19</f>
+        <v>0.37650491678343068</v>
+      </c>
+      <c r="D19">
+        <f>LK_HOD!AF19</f>
+        <v>1.3743324981417571</v>
+      </c>
+      <c r="E19">
+        <f>LK_HOD!AN19</f>
+        <v>0.65074955244746158</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>-0.42963042285650926</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f>LK_HOD!B20</f>
+        <v>AMFG</v>
+      </c>
+      <c r="B20">
+        <f>LK_HOD!AC20</f>
+        <v>7.2360349226953072E-2</v>
+      </c>
+      <c r="C20">
+        <f>LK_HOD!AE20</f>
+        <v>0.93809867063765551</v>
+      </c>
+      <c r="D20">
+        <f>LK_HOD!AF20</f>
+        <v>0.52944879842101056</v>
+      </c>
+      <c r="E20">
+        <f>LK_HOD!AN20</f>
+        <v>2.7956877255714301</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>1.0280781320009522</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <f>LK_HOD!AC21</f>
+        <v>1.0867944986540813E-2</v>
+      </c>
+      <c r="C21">
+        <f>LK_HOD!AE21</f>
+        <v>0.86156928006034694</v>
+      </c>
+      <c r="D21">
+        <f>LK_HOD!AF21</f>
+        <v>0.76614066928777746</v>
+      </c>
+      <c r="E21">
+        <f>LK_HOD!AN21</f>
+        <v>2.122590613075777</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>0.75263732996502386</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <f>LK_HOD!AC22</f>
+        <v>1.8339206365005814E-3</v>
+      </c>
+      <c r="C22">
+        <f>LK_HOD!AE22</f>
+        <v>0.52326867958208156</v>
+      </c>
+      <c r="D22">
+        <f>LK_HOD!AF22</f>
+        <v>1.3445691092806504</v>
+      </c>
+      <c r="E22">
+        <f>LK_HOD!AN22</f>
+        <v>1.3772087732339382</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>0.32005882280316839</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <f>LK_HOD!AC23</f>
+        <v>-3.8775857927917018E-2</v>
+      </c>
+      <c r="C23">
+        <f>LK_HOD!AE23</f>
+        <v>0.41012631539348837</v>
+      </c>
+      <c r="D23">
+        <f>LK_HOD!AF23</f>
+        <v>1.5625313239476106</v>
+      </c>
+      <c r="E23">
+        <f>LK_HOD!AN23</f>
+        <v>1.1284782437939445</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>0.1208700382184965</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <f>LK_HOD!AC24</f>
+        <v>-0.14710272277945838</v>
+      </c>
+      <c r="C24">
+        <f>LK_HOD!AE24</f>
+        <v>0.33012873830143297</v>
+      </c>
+      <c r="D24">
+        <f>LK_HOD!AF24</f>
+        <v>1.7174402535021573</v>
+      </c>
+      <c r="E24">
+        <f>LK_HOD!AN24</f>
+        <v>0.85087287688479996</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>-0.16149254243112027</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <f>LK_HOD!AC25</f>
+        <v>9.6761705111088378E-2</v>
+      </c>
+      <c r="C25">
+        <f>LK_HOD!AE25</f>
+        <v>0.33333177712382395</v>
+      </c>
+      <c r="D25">
+        <f>LK_HOD!AF25</f>
+        <v>1.2479946826486799</v>
+      </c>
+      <c r="E25">
+        <f>LK_HOD!AN25</f>
+        <v>1.6654564064432715</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>0.51009920385288388</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f>LK_HOD!B26</f>
+        <v>ALMI</v>
+      </c>
+      <c r="B26">
+        <f>LK_HOD!AC26</f>
+        <v>-0.24754336139271393</v>
+      </c>
+      <c r="C26">
+        <f>LK_HOD!AE26</f>
+        <v>0.35066701034488923</v>
+      </c>
+      <c r="D26">
+        <f>LK_HOD!AF26</f>
+        <v>4.3333185016639835</v>
+      </c>
+      <c r="E26">
+        <f>LK_HOD!AN26</f>
+        <v>0.86846502747608145</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>-0.14102796184222041</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <f>LK_HOD!AC27</f>
+        <v>2.2293777203691779E-2</v>
+      </c>
+      <c r="C27">
+        <f>LK_HOD!AE27</f>
+        <v>0.40596269041509192</v>
+      </c>
+      <c r="D27">
+        <f>LK_HOD!AF27</f>
+        <v>5.272015024509443</v>
+      </c>
+      <c r="E27">
+        <f>LK_HOD!AN27</f>
+        <v>1.4635019407718388</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>0.38083215326565723</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <f>LK_HOD!AC28</f>
+        <v>2.0001898355986789E-2</v>
+      </c>
+      <c r="C28">
+        <f>LK_HOD!AE28</f>
+        <v>0.34219104673299938</v>
+      </c>
+      <c r="D28">
+        <f>LK_HOD!AF28</f>
+        <v>7.5014072666034259</v>
+      </c>
+      <c r="E28">
+        <f>LK_HOD!AN28</f>
+        <v>1.6815934219201769</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>0.51974180933471636</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <f>LK_HOD!AC29</f>
+        <v>-136.43605765434648</v>
+      </c>
+      <c r="C29">
+        <f>LK_HOD!AE29</f>
+        <v>0.23136643472902579</v>
+      </c>
+      <c r="D29">
+        <f>LK_HOD!AF29</f>
+        <v>786.93111419108618</v>
+      </c>
+      <c r="E29">
+        <f>LK_HOD!AN29</f>
+        <v>0.62197849365097957</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>-0.47484976296455261</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <f>LK_HOD!AC30</f>
+        <v>0.9912884683417853</v>
+      </c>
+      <c r="C30">
+        <f>LK_HOD!AE30</f>
+        <v>0.2014328886097351</v>
+      </c>
+      <c r="D30">
+        <f>LK_HOD!AF30</f>
+        <v>-6.3005201472084877</v>
+      </c>
+      <c r="E30">
+        <f>LK_HOD!AN30</f>
+        <v>-1.6782632870273946</v>
+      </c>
+      <c r="F30" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <f>LK_HOD!AC31</f>
+        <v>1.0164997053624043E-3</v>
+      </c>
+      <c r="C31">
+        <f>LK_HOD!AE31</f>
+        <v>0.66925204874454403</v>
+      </c>
+      <c r="D31">
+        <f>LK_HOD!AF31</f>
+        <v>1.5545195010875994</v>
+      </c>
+      <c r="E31">
+        <f>LK_HOD!AN31</f>
+        <v>-0.26550136277104741</v>
+      </c>
+      <c r="F31" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f>LK_HOD!B32</f>
+        <v>ADMG</v>
+      </c>
+      <c r="B32">
+        <f>LK_HOD!AC32</f>
+        <v>-8.3801378159620091E-2</v>
+      </c>
+      <c r="C32">
+        <f>LK_HOD!AE32</f>
+        <v>1.0473131391836834</v>
+      </c>
+      <c r="D32">
+        <f>LK_HOD!AF32</f>
+        <v>0.55157598633626481</v>
+      </c>
+      <c r="E32">
+        <f>LK_HOD!AN32</f>
+        <v>0.78775113363523097</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>-0.23857305926583808</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <f>LK_HOD!AC33</f>
+        <v>-3.6052411442543092E-2</v>
+      </c>
+      <c r="C33">
+        <f>LK_HOD!AE33</f>
+        <v>1.2613521668101533</v>
+      </c>
+      <c r="D33">
+        <f>LK_HOD!AF33</f>
+        <v>0.56144817829989968</v>
+      </c>
+      <c r="E33">
+        <f>LK_HOD!AN33</f>
+        <v>1.3185278610673401</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>0.27651585746951285</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <f>LK_HOD!AC34</f>
+        <v>-5.3515571810152469E-3</v>
+      </c>
+      <c r="C34">
+        <f>LK_HOD!AE34</f>
+        <v>2.5481689068732529</v>
+      </c>
+      <c r="D34">
+        <f>LK_HOD!AF34</f>
+        <v>0.15138445848897933</v>
+      </c>
+      <c r="E34">
+        <f>LK_HOD!AN34</f>
+        <v>2.8642540256177749</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>1.0523079412607248</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <f>LK_HOD!AC35</f>
+        <v>-0.14238453685343028</v>
+      </c>
+      <c r="C35">
+        <f>LK_HOD!AE35</f>
+        <v>1.7144685311698309</v>
+      </c>
+      <c r="D35">
+        <f>LK_HOD!AF35</f>
+        <v>0.228101524175087</v>
+      </c>
+      <c r="E35">
+        <f>LK_HOD!AN35</f>
+        <v>1.1843980938683103</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>0.16923470787918676</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <f>LK_HOD!AC36</f>
+        <v>-0.23096840695549237</v>
+      </c>
+      <c r="C36">
+        <f>LK_HOD!AE36</f>
+        <v>1.9389969454477298</v>
+      </c>
+      <c r="D36">
+        <f>LK_HOD!AF36</f>
+        <v>0.22879736259181366</v>
+      </c>
+      <c r="E36">
+        <f>LK_HOD!AN36</f>
+        <v>0.83571227742169729</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>-0.17947089089958412</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <f>LK_HOD!AC37</f>
+        <v>4.4422256629357377E-3</v>
+      </c>
+      <c r="C37">
+        <f>LK_HOD!AE37</f>
+        <v>1.9785026600467122</v>
+      </c>
+      <c r="D37">
+        <f>LK_HOD!AF37</f>
+        <v>0.18874772700405687</v>
+      </c>
+      <c r="E37">
+        <f>LK_HOD!AN37</f>
+        <v>1.624734073692522</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>0.48534415543162829</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
+        <f>LK_HOD!B38</f>
+        <v>KIAS</v>
+      </c>
+      <c r="B38">
+        <f>LK_HOD!AC38</f>
+        <v>-0.1661145228289361</v>
+      </c>
+      <c r="C38">
+        <f>LK_HOD!AE38</f>
+        <v>2.5023334961657415</v>
+      </c>
+      <c r="D38">
+        <f>LK_HOD!AF38</f>
+        <v>0.22344285290205809</v>
+      </c>
+      <c r="E38">
+        <f>LK_HOD!AN38</f>
+        <v>2.2304881977321425</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>0.80222048426177872</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <f>LK_HOD!AC39</f>
+        <v>-5.978773755903919E-2</v>
+      </c>
+      <c r="C39">
+        <f>LK_HOD!AE39</f>
+        <v>2.4961915686079013</v>
+      </c>
+      <c r="D39">
+        <f>LK_HOD!AF39</f>
+        <v>0.23891916335693197</v>
+      </c>
+      <c r="E39">
+        <f>LK_HOD!AN39</f>
+        <v>2.7903724211128935</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>1.0261750711948963</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <f>LK_HOD!AC40</f>
+        <v>-5.8461981080270578E-2</v>
+      </c>
+      <c r="C40">
+        <f>LK_HOD!AE40</f>
+        <v>2.3396837052767596</v>
+      </c>
+      <c r="D40">
+        <f>LK_HOD!AF40</f>
+        <v>0.2580290364102053</v>
+      </c>
+      <c r="E40">
+        <f>LK_HOD!AN40</f>
+        <v>2.7231276691290862</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>1.0017810980604314</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <f>LK_HOD!AC41</f>
+        <v>-0.54598556582722657</v>
+      </c>
+      <c r="C41">
+        <f>LK_HOD!AE41</f>
+        <v>1.2428938367592832</v>
+      </c>
+      <c r="D41">
+        <f>LK_HOD!AF41</f>
+        <v>0.36012001613306716</v>
+      </c>
+      <c r="E41">
+        <f>LK_HOD!AN41</f>
+        <v>1.1354628868759709E-2</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>-4.4781297883480429</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <f>LK_HOD!AC42</f>
+        <v>-6.0721231093696641E-2</v>
+      </c>
+      <c r="C42">
+        <f>LK_HOD!AE42</f>
+        <v>1.28207127532873</v>
+      </c>
+      <c r="D42">
+        <f>LK_HOD!AF42</f>
+        <v>0.19844679565409415</v>
+      </c>
+      <c r="E42">
+        <f>LK_HOD!AN42</f>
+        <v>1.5546198825701163</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>0.44123106724082722</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <f>LK_HOD!AC43</f>
+        <v>-6.5625408072013409E-3</v>
+      </c>
+      <c r="C43">
+        <f>LK_HOD!AE43</f>
+        <v>1.9418229750260481</v>
+      </c>
+      <c r="D43">
+        <f>LK_HOD!AF43</f>
+        <v>0.18146236884914671</v>
+      </c>
+      <c r="E43">
+        <f>LK_HOD!AN43</f>
+        <v>2.1889350387782214</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>0.78341514189125161</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
+        <f>LK_HOD!B44</f>
+        <v>LMSH</v>
+      </c>
+      <c r="B44">
+        <f>LK_HOD!AC44</f>
+        <v>5.3298695893221601E-2</v>
+      </c>
+      <c r="C44">
+        <f>LK_HOD!AE44</f>
+        <v>1.5657624719492786</v>
+      </c>
+      <c r="D44">
+        <f>LK_HOD!AF44</f>
+        <v>0.38793956610364205</v>
+      </c>
+      <c r="E44">
+        <f>LK_HOD!AN44</f>
+        <v>3.2829940055355853</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>1.1887558126072146</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <f>LK_HOD!AC45</f>
+        <v>0.10003790669935166</v>
+      </c>
+      <c r="C45">
+        <f>LK_HOD!AE45</f>
+        <v>2.5956761531730703</v>
+      </c>
+      <c r="D45">
+        <f>LK_HOD!AF45</f>
+        <v>0.24333387090356329</v>
+      </c>
+      <c r="E45">
+        <f>LK_HOD!AN45</f>
+        <v>4.4630682307361216</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>1.4958364736181318</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <f>LK_HOD!AC46</f>
+        <v>2.175506329422924E-2</v>
+      </c>
+      <c r="C46">
+        <f>LK_HOD!AE46</f>
+        <v>3.4604647794002887</v>
+      </c>
+      <c r="D46">
+        <f>LK_HOD!AF46</f>
+        <v>0.20600359444813035</v>
+      </c>
+      <c r="E46">
+        <f>LK_HOD!AN46</f>
+        <v>4.4493782279108576</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>1.4927643623508564</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <f>LK_HOD!AC47</f>
+        <v>-0.16056226402299492</v>
+      </c>
+      <c r="C47">
+        <f>LK_HOD!AE47</f>
+        <v>2.2795382118688732</v>
+      </c>
+      <c r="D47">
+        <f>LK_HOD!AF47</f>
+        <v>0.29440789364197162</v>
+      </c>
+      <c r="E47">
+        <f>LK_HOD!AN47</f>
+        <v>3.0575984609506737</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>1.1176297911516628</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <f>LK_HOD!AC48</f>
+        <v>-7.44659078302852E-2</v>
+      </c>
+      <c r="C48">
+        <f>LK_HOD!AE48</f>
+        <v>1.828220166448502</v>
+      </c>
+      <c r="D48">
+        <f>LK_HOD!AF48</f>
+        <v>0.32426651437211768</v>
+      </c>
+      <c r="E48">
+        <f>LK_HOD!AN48</f>
+        <v>2.8104266650206116</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>1.0333363099050459</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <f>LK_HOD!AC49</f>
+        <v>5.6368423704561139E-2</v>
+      </c>
+      <c r="C49">
+        <f>LK_HOD!AE49</f>
+        <v>2.4669851154305835</v>
+      </c>
+      <c r="D49">
+        <f>LK_HOD!AF49</f>
+        <v>0.25866841066702329</v>
+      </c>
+      <c r="E49">
+        <f>LK_HOD!AN49</f>
+        <v>4.3012738774636325</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>1.4589112293989184</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
+        <f>LK_HOD!B50</f>
+        <v>SULI</v>
+      </c>
+      <c r="B50">
+        <f>LK_HOD!AC50</f>
+        <v>-3.8446651760837662E-2</v>
+      </c>
+      <c r="C50">
+        <f>LK_HOD!AE50</f>
+        <v>0.27943085626809561</v>
+      </c>
+      <c r="D50">
+        <f>LK_HOD!AF50</f>
+        <v>-6.9299429922302282</v>
+      </c>
+      <c r="E50">
+        <f>LK_HOD!AN50</f>
+        <v>-2.0491951670362152</v>
+      </c>
+      <c r="F50" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <f>LK_HOD!AC51</f>
+        <v>1.5512381294789934</v>
+      </c>
+      <c r="C51">
+        <f>LK_HOD!AE51</f>
+        <v>0.29628960429318196</v>
+      </c>
+      <c r="D51">
+        <f>LK_HOD!AF51</f>
+        <v>94.099679534824233</v>
+      </c>
+      <c r="E51">
+        <f>LK_HOD!AN51</f>
+        <v>-2.2622394090463809</v>
+      </c>
+      <c r="F51" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <f>LK_HOD!AC52</f>
+        <v>0.65535127645632518</v>
+      </c>
+      <c r="C52">
+        <f>LK_HOD!AE52</f>
+        <v>0.21937697329296058</v>
+      </c>
+      <c r="D52">
+        <f>LK_HOD!AF52</f>
+        <v>19.296001156904815</v>
+      </c>
+      <c r="E52">
+        <f>LK_HOD!AN52</f>
+        <v>-2.0876269693777276</v>
+      </c>
+      <c r="F52" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <f>LK_HOD!AC53</f>
+        <v>-2.0277878745851639</v>
+      </c>
+      <c r="C53">
+        <f>LK_HOD!AE53</f>
+        <v>0.11168136282416256</v>
+      </c>
+      <c r="D53">
+        <f>LK_HOD!AF53</f>
+        <v>22.014140204449941</v>
+      </c>
+      <c r="E53">
+        <f>LK_HOD!AN53</f>
+        <v>-3.0528295163237837</v>
+      </c>
+      <c r="F53" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <f>LK_HOD!AC54</f>
+        <v>1.1638296479911685</v>
+      </c>
+      <c r="C54">
+        <f>LK_HOD!AE54</f>
+        <v>7.3915598079224154E-2</v>
+      </c>
+      <c r="D54">
+        <f>LK_HOD!AF54</f>
+        <v>-5.7037608608824284</v>
+      </c>
+      <c r="E54">
+        <f>LK_HOD!AN54</f>
+        <v>-5.0448954024247223</v>
+      </c>
+      <c r="F54" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <f>LK_HOD!AC55</f>
+        <v>-0.23653389141882966</v>
+      </c>
+      <c r="C55">
+        <f>LK_HOD!AE55</f>
+        <v>0.15535587462828873</v>
+      </c>
+      <c r="D55">
+        <f>LK_HOD!AF55</f>
+        <v>-7.1759530719107865</v>
+      </c>
+      <c r="E55">
+        <f>LK_HOD!AN55</f>
+        <v>3.8181001627500466</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>1.3397529593098987</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="str">
+        <f>LK_HOD!B56</f>
+        <v>TIRT</v>
+      </c>
+      <c r="B56">
+        <f>LK_HOD!AC56</f>
+        <v>0.22860136145266979</v>
+      </c>
+      <c r="C56">
+        <f>LK_HOD!AE56</f>
+        <v>0.36612676147123296</v>
+      </c>
+      <c r="D56">
+        <f>LK_HOD!AF56</f>
+        <v>5.4349001761064404</v>
+      </c>
+      <c r="E56">
+        <f>LK_HOD!AN56</f>
+        <v>1.2875471314453972</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>0.25273895983361755</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <f>LK_HOD!AC57</f>
+        <v>8.0872797573983048E-3</v>
+      </c>
+      <c r="C57">
+        <f>LK_HOD!AE57</f>
+        <v>0.39367453513555539</v>
+      </c>
+      <c r="D57">
+        <f>LK_HOD!AF57</f>
+        <v>5.939773740921944</v>
+      </c>
+      <c r="E57">
+        <f>LK_HOD!AN57</f>
+        <v>1.0273155964941276</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>2.6949183149684409E-2</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <f>LK_HOD!AC58</f>
+        <v>-0.41695147465523447</v>
+      </c>
+      <c r="C58">
+        <f>LK_HOD!AE58</f>
+        <v>0.33183624694122749</v>
+      </c>
+      <c r="D58">
+        <f>LK_HOD!AF58</f>
+        <v>9.5545180332243156</v>
+      </c>
+      <c r="E58">
+        <f>LK_HOD!AN58</f>
+        <v>0.97053397223902005</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>-2.9908872102658097E-2</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <f>LK_HOD!AC59</f>
+        <v>-1.4394528770562884</v>
+      </c>
+      <c r="C59">
+        <f>LK_HOD!AE59</f>
+        <v>0.19265855875272614</v>
+      </c>
+      <c r="D59">
+        <f>LK_HOD!AF59</f>
+        <v>23.917303548338236</v>
+      </c>
+      <c r="E59">
+        <f>LK_HOD!AN59</f>
+        <v>0.36666504672156236</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>-1.0033065269056469</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <f>LK_HOD!AC60</f>
+        <v>1.0616813578468016</v>
+      </c>
+      <c r="C60">
+        <f>LK_HOD!AE60</f>
+        <v>6.9573700674811473E-2</v>
+      </c>
+      <c r="D60">
+        <f>LK_HOD!AF60</f>
+        <v>-2.0112797524726456</v>
+      </c>
+      <c r="E60">
+        <f>LK_HOD!AN60</f>
+        <v>-5.6894684144531933</v>
+      </c>
+      <c r="F60" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <f>LK_HOD!AC61</f>
+        <v>0.2457842344731376</v>
+      </c>
+      <c r="C61">
+        <f>LK_HOD!AE61</f>
+        <v>9.7919150467073876E-2</v>
+      </c>
+      <c r="D61">
+        <f>LK_HOD!AF61</f>
+        <v>-1.5491365175447755</v>
+      </c>
+      <c r="E61">
+        <f>LK_HOD!AN61</f>
+        <v>-5.3243369327897323</v>
+      </c>
+      <c r="F61" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="str">
+        <f>LK_HOD!B62</f>
+        <v>INCF</v>
+      </c>
+      <c r="B62">
+        <f>LK_HOD!AC62</f>
+        <v>4.2085616472097021E-2</v>
+      </c>
+      <c r="C62">
+        <f>LK_HOD!AE62</f>
+        <v>0.49803677469656132</v>
+      </c>
+      <c r="D62">
+        <f>LK_HOD!AF62</f>
+        <v>2.1225196637617736</v>
+      </c>
+      <c r="E62">
+        <f>LK_HOD!AN62</f>
+        <v>2.6147553588806014</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>0.96117054013120029</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <f>LK_HOD!AC63</f>
+        <v>2.6673503755569459E-2</v>
+      </c>
+      <c r="C63">
+        <f>LK_HOD!AE63</f>
+        <v>0.47214417838913897</v>
+      </c>
+      <c r="D63">
+        <f>LK_HOD!AF63</f>
+        <v>3.0667451838845845</v>
+      </c>
+      <c r="E63">
+        <f>LK_HOD!AN63</f>
+        <v>1.2615402062618366</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>0.23233336038009109</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <f>LK_HOD!AC64</f>
+        <v>2.9861935341681748E-2</v>
+      </c>
+      <c r="C64">
+        <f>LK_HOD!AE64</f>
+        <v>0.89369904089297825</v>
+      </c>
+      <c r="D64">
+        <f>LK_HOD!AF64</f>
+        <v>2.5717835035471794</v>
+      </c>
+      <c r="E64">
+        <f>LK_HOD!AN64</f>
+        <v>2.1267278671633179</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>0.75458458593752198</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <f>LK_HOD!AC65</f>
+        <v>-2.8526832369482811E-2</v>
+      </c>
+      <c r="C65">
+        <f>LK_HOD!AE65</f>
+        <v>0.75613936926338132</v>
+      </c>
+      <c r="D65">
+        <f>LK_HOD!AF65</f>
+        <v>2.1589745107676812</v>
+      </c>
+      <c r="E65">
+        <f>LK_HOD!AN65</f>
+        <v>1.2476205515478942</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>0.22123817848205346</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <f>LK_HOD!AC66</f>
+        <v>-4.8083691555405164E-2</v>
+      </c>
+      <c r="C66">
+        <f>LK_HOD!AE66</f>
+        <v>1.679870879179177</v>
+      </c>
+      <c r="D66">
+        <f>LK_HOD!AF66</f>
+        <v>2.4345129832218171</v>
+      </c>
+      <c r="E66">
+        <f>LK_HOD!AN66</f>
+        <v>1.2065090818151809</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>0.18773113346048756</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <f>LK_HOD!AC67</f>
+        <v>5.1361330804594848E-3</v>
+      </c>
+      <c r="C67">
+        <f>LK_HOD!AE67</f>
+        <v>1.3531755720589767</v>
+      </c>
+      <c r="D67">
+        <f>LK_HOD!AF67</f>
+        <v>2.7335342097215398</v>
+      </c>
+      <c r="E67">
+        <f>LK_HOD!AN67</f>
+        <v>1.7109876317055748</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67:F91" si="2">LN(E67)</f>
+        <v>0.53707076619051886</v>
+      </c>
+      <c r="G67">
+        <f t="shared" ref="G67:G91" si="3">IF(ISNUMBER(F67),1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="str">
+        <f>LK_HOD!B68</f>
+        <v>GDST</v>
+      </c>
+      <c r="B68">
+        <f>LK_HOD!AC68</f>
+        <v>3.8100807858285637E-2</v>
+      </c>
+      <c r="C68">
+        <f>LK_HOD!AE68</f>
+        <v>0.82300457415636386</v>
+      </c>
+      <c r="D68">
+        <f>LK_HOD!AF68</f>
+        <v>0.51132696750566864</v>
+      </c>
+      <c r="E68">
+        <f>LK_HOD!AN68</f>
+        <v>2.1034914524983739</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="2"/>
+        <v>0.74359856057375706</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <f>LK_HOD!AC69</f>
+        <v>1.0112205151772843E-2</v>
+      </c>
+      <c r="C69">
+        <f>LK_HOD!AE69</f>
+        <v>1.0928966218804823</v>
+      </c>
+      <c r="D69">
+        <f>LK_HOD!AF69</f>
+        <v>0.35192626542150457</v>
+      </c>
+      <c r="E69">
+        <f>LK_HOD!AN69</f>
+        <v>2.4047828477668958</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="2"/>
+        <v>0.87745960749234075</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <f>LK_HOD!AC70</f>
+        <v>-9.7992377337186867E-2</v>
+      </c>
+      <c r="C70">
+        <f>LK_HOD!AE70</f>
+        <v>0.44131038092822011</v>
+      </c>
+      <c r="D70">
+        <f>LK_HOD!AF70</f>
+        <v>0.50881401940482363</v>
+      </c>
+      <c r="E70">
+        <f>LK_HOD!AN70</f>
+        <v>1.8438483470277922</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="2"/>
+        <v>0.61185488044426151</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <f>LK_HOD!AC71</f>
+        <v>2.9221376472977081E-2</v>
+      </c>
+      <c r="C71">
+        <f>LK_HOD!AE71</f>
+        <v>0.29944321569485238</v>
+      </c>
+      <c r="D71">
+        <f>LK_HOD!AF71</f>
+        <v>0.91693497726423412</v>
+      </c>
+      <c r="E71">
+        <f>LK_HOD!AN71</f>
+        <v>1.402146967088679</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="2"/>
+        <v>0.33800460985788833</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <f>LK_HOD!AC72</f>
+        <v>-9.1919615899091381E-2</v>
+      </c>
+      <c r="C72">
+        <f>LK_HOD!AE72</f>
+        <v>0.20459835068077556</v>
+      </c>
+      <c r="D72">
+        <f>LK_HOD!AF72</f>
+        <v>0.87526851912966619</v>
+      </c>
+      <c r="E72">
+        <f>LK_HOD!AN72</f>
+        <v>1.2533494475375289</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="2"/>
+        <v>0.22581952572885752</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <f>LK_HOD!AC73</f>
+        <v>-8.0842231267057474E-2</v>
+      </c>
+      <c r="C73">
+        <f>LK_HOD!AE73</f>
+        <v>0.25544059449640971</v>
+      </c>
+      <c r="D73">
+        <f>LK_HOD!AF73</f>
+        <v>1.009877447315183</v>
+      </c>
+      <c r="E73">
+        <f>LK_HOD!AN73</f>
+        <v>1.3222536444651456</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="2"/>
+        <v>0.27933758722042651</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="str">
+        <f>LK_HOD!B74</f>
+        <v>BAJA</v>
+      </c>
+      <c r="B74">
+        <f>LK_HOD!AC74</f>
+        <v>0.17502739151694616</v>
+      </c>
+      <c r="C74">
+        <f>LK_HOD!AE74</f>
+        <v>0.38363059268234778</v>
+      </c>
+      <c r="D74">
+        <f>LK_HOD!AF74</f>
+        <v>4.0005773663859392</v>
+      </c>
+      <c r="E74">
+        <f>LK_HOD!AN74</f>
+        <v>1.6177370543934868</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="2"/>
+        <v>0.48102829269388137</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <f>LK_HOD!AC75</f>
+        <v>-0.13361974266565813</v>
+      </c>
+      <c r="C75">
+        <f>LK_HOD!AE75</f>
+        <v>0.32386098825368581</v>
+      </c>
+      <c r="D75">
+        <f>LK_HOD!AF75</f>
+        <v>4.5020915468485736</v>
+      </c>
+      <c r="E75">
+        <f>LK_HOD!AN75</f>
+        <v>1.3515008871046541</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="2"/>
+        <v>0.30121574311939148</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <f>LK_HOD!AC76</f>
+        <v>-1.2636445034709258</v>
+      </c>
+      <c r="C76">
+        <f>LK_HOD!AE76</f>
+        <v>0.35735651312173206</v>
+      </c>
+      <c r="D76">
+        <f>LK_HOD!AF76</f>
+        <v>10.776867666403108</v>
+      </c>
+      <c r="E76">
+        <f>LK_HOD!AN76</f>
+        <v>0.92463459263754078</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="2"/>
+        <v>-7.8356654503029366E-2</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <f>LK_HOD!AC77</f>
+        <v>1.5002370250863959E-2</v>
+      </c>
+      <c r="C77">
+        <f>LK_HOD!AE77</f>
+        <v>0.34431614532793459</v>
+      </c>
+      <c r="D77">
+        <f>LK_HOD!AF77</f>
+        <v>10.280528782429352</v>
+      </c>
+      <c r="E77">
+        <f>LK_HOD!AN77</f>
+        <v>1.0474346516847231</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="2"/>
+        <v>4.6343985841611667E-2</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <f>LK_HOD!AC78</f>
+        <v>0.43115545393642396</v>
+      </c>
+      <c r="C78">
+        <f>LK_HOD!AE78</f>
+        <v>0.42515441741189325</v>
+      </c>
+      <c r="D78">
+        <f>LK_HOD!AF78</f>
+        <v>4.9483017959509015</v>
+      </c>
+      <c r="E78">
+        <f>LK_HOD!AN78</f>
+        <v>1.7845237841165269</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="2"/>
+        <v>0.5791515920276683</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <f>LK_HOD!AC79</f>
+        <v>0.4135149444091259</v>
+      </c>
+      <c r="C79">
+        <f>LK_HOD!AE79</f>
+        <v>1.0299344402570028</v>
+      </c>
+      <c r="D79">
+        <f>LK_HOD!AF79</f>
+        <v>2.3919948465714587</v>
+      </c>
+      <c r="E79">
+        <f>LK_HOD!AN79</f>
+        <v>3.7453637857881916</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="2"/>
+        <v>1.3205187513137571</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="str">
+        <f>LK_HOD!B80</f>
+        <v>YPAS</v>
+      </c>
+      <c r="B80">
+        <f>LK_HOD!AC80</f>
+        <v>-7.6988138629763281E-2</v>
+      </c>
+      <c r="C80">
+        <f>LK_HOD!AE80</f>
+        <v>0.46443084574127641</v>
+      </c>
+      <c r="D80">
+        <f>LK_HOD!AF80</f>
+        <v>0.97362552206840602</v>
+      </c>
+      <c r="E80">
+        <f>LK_HOD!AN80</f>
+        <v>3.5665431161268604</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="2"/>
+        <v>1.2715968118614969</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <f>LK_HOD!AC81</f>
+        <v>-0.11408986946987999</v>
+      </c>
+      <c r="C81">
+        <f>LK_HOD!AE81</f>
+        <v>0.54524654163463371</v>
+      </c>
+      <c r="D81">
+        <f>LK_HOD!AF81</f>
+        <v>1.3883515804228634</v>
+      </c>
+      <c r="E81">
+        <f>LK_HOD!AN81</f>
+        <v>3.1633155498951542</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="2"/>
+        <v>1.1516207021977205</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <f>LK_HOD!AC82</f>
+        <v>-7.6523680226677979E-2</v>
+      </c>
+      <c r="C82">
+        <f>LK_HOD!AE82</f>
+        <v>0.6308083728936863</v>
+      </c>
+      <c r="D82">
+        <f>LK_HOD!AF82</f>
+        <v>1.8011283841093331</v>
+      </c>
+      <c r="E82">
+        <f>LK_HOD!AN82</f>
+        <v>2.5438442319914234</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="2"/>
+        <v>0.93367641404014978</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <f>LK_HOD!AC83</f>
+        <v>2.8749590529916744E-2</v>
+      </c>
+      <c r="C83">
+        <f>LK_HOD!AE83</f>
+        <v>1.0180521242856935</v>
+      </c>
+      <c r="D83">
+        <f>LK_HOD!AF83</f>
+        <v>1.2928597807741526</v>
+      </c>
+      <c r="E83">
+        <f>LK_HOD!AN83</f>
+        <v>3.2504671150491045</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="2"/>
+        <v>1.1787987137212255</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <f>LK_HOD!AC84</f>
+        <v>6.348122912576723E-2</v>
+      </c>
+      <c r="C84">
+        <f>LK_HOD!AE84</f>
+        <v>1.0918931369976026</v>
+      </c>
+      <c r="D84">
+        <f>LK_HOD!AF84</f>
+        <v>1.1004545548613653</v>
+      </c>
+      <c r="E84">
+        <f>LK_HOD!AN84</f>
+        <v>2.9053631760863996</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="2"/>
+        <v>1.0665584000755071</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <f>LK_HOD!AC85</f>
+        <v>-7.7734849031543471E-2</v>
+      </c>
+      <c r="C85">
+        <f>LK_HOD!AE85</f>
+        <v>1.0234261890981475</v>
+      </c>
+      <c r="D85">
+        <f>LK_HOD!AF85</f>
+        <v>1.115858981164346</v>
+      </c>
+      <c r="E85">
+        <f>LK_HOD!AN85</f>
+        <v>3.9751781322871498</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="2"/>
+        <v>1.3800695602562159</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="str">
+        <f>LK_HOD!B86</f>
+        <v>CTBN</v>
+      </c>
+      <c r="B86">
+        <f>LK_HOD!AC86</f>
+        <v>-7.8793025035386634E-3</v>
+      </c>
+      <c r="C86">
+        <f>LK_HOD!AE86</f>
+        <v>1.523627272751009</v>
+      </c>
+      <c r="D86">
+        <f>LK_HOD!AF86</f>
+        <v>0.35452286562240926</v>
+      </c>
+      <c r="E86">
+        <f>LK_HOD!AN86</f>
+        <v>5.9836426109857763</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="2"/>
+        <v>1.7890295147886506</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <f>LK_HOD!AC87</f>
+        <v>-0.11504836683403365</v>
+      </c>
+      <c r="C87">
+        <f>LK_HOD!AE87</f>
+        <v>1.6209845761750339</v>
+      </c>
+      <c r="D87">
+        <f>LK_HOD!AF87</f>
+        <v>0.4192908113475951</v>
+      </c>
+      <c r="E87">
+        <f>LK_HOD!AN87</f>
+        <v>4.8050561795754643</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="2"/>
+        <v>1.5696687342530662</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <f>LK_HOD!AC88</f>
+        <v>-5.8689223298761396E-2</v>
+      </c>
+      <c r="C88">
+        <f>LK_HOD!AE88</f>
+        <v>0.76551694881965171</v>
+      </c>
+      <c r="D88">
+        <f>LK_HOD!AF88</f>
+        <v>0.57645558009984443</v>
+      </c>
+      <c r="E88">
+        <f>LK_HOD!AN88</f>
+        <v>3.6661812331352799</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="2"/>
+        <v>1.2991505844026983</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <f>LK_HOD!AC89</f>
+        <v>1.6217240071754273E-2</v>
+      </c>
+      <c r="C89">
+        <f>LK_HOD!AE89</f>
+        <v>0.71892010101018333</v>
+      </c>
+      <c r="D89">
+        <f>LK_HOD!AF89</f>
+        <v>0.69858715696185014</v>
+      </c>
+      <c r="E89">
+        <f>LK_HOD!AN89</f>
+        <v>3.1745323351660697</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="2"/>
+        <v>1.1551603254848455</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <f>LK_HOD!AC90</f>
+        <v>-3.077377202841718E-2</v>
+      </c>
+      <c r="C90">
+        <f>LK_HOD!AE90</f>
+        <v>1.7335083423902469</v>
+      </c>
+      <c r="D90">
+        <f>LK_HOD!AF90</f>
+        <v>0.31304030357074913</v>
+      </c>
+      <c r="E90">
+        <f>LK_HOD!AN90</f>
+        <v>5.5469522595751561</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="2"/>
+        <v>1.7132486345055322</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <f>LK_HOD!AC91</f>
+        <v>-0.17893415248641062</v>
+      </c>
+      <c r="C91">
+        <f>LK_HOD!AE91</f>
+        <v>0.71680208075271823</v>
+      </c>
+      <c r="D91">
+        <f>LK_HOD!AF91</f>
+        <v>0.52844747276517701</v>
+      </c>
+      <c r="E91">
+        <f>LK_HOD!AN91</f>
+        <v>2.8363944843249942</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="2"/>
+        <v>1.0425336978417361</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0572D48E-B8B3-41B8-8561-2E97502B72DE}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="98" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="98" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="98" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="98" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" s="98" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="96"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="96" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="96">
+        <v>-1.5529278200408221</v>
+      </c>
+      <c r="C3" s="96">
+        <v>0.86132063166417894</v>
+      </c>
+      <c r="D3" s="96">
+        <v>11.924420777572285</v>
+      </c>
+      <c r="E3" s="96">
+        <v>1.4789588890794048</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="96" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" s="96">
+        <v>1.5162716206718636</v>
+      </c>
+      <c r="C4" s="96">
+        <v>7.7012930016134323E-2</v>
+      </c>
+      <c r="D4" s="96">
+        <v>8.7816886939241989</v>
+      </c>
+      <c r="E4" s="96">
+        <v>0.21709331553892303</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="96" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="96">
+        <v>-2.4796223566541747E-2</v>
+      </c>
+      <c r="C5" s="96">
+        <v>0.53425761060835764</v>
+      </c>
+      <c r="D5" s="96">
+        <v>1.0605850018460599</v>
+      </c>
+      <c r="E5" s="96">
+        <v>1.5392166861097303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="96" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" s="96" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C6" s="96" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D6" s="96" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E6" s="96" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="96" t="s">
+        <v>166</v>
+      </c>
+      <c r="B7" s="96">
+        <v>14.384615618393811</v>
+      </c>
+      <c r="C7" s="96">
+        <v>0.73060880440239717</v>
+      </c>
+      <c r="D7" s="96">
+        <v>83.310413926049179</v>
+      </c>
+      <c r="E7" s="96">
+        <v>2.0595280257018636</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="96" t="s">
+        <v>167</v>
+      </c>
+      <c r="B8" s="96">
+        <v>206.91716648893916</v>
+      </c>
+      <c r="C8" s="96">
+        <v>0.53378922507030024</v>
+      </c>
+      <c r="D8" s="96">
+        <v>6940.62506852965</v>
+      </c>
+      <c r="E8" s="96">
+        <v>4.2416556886514165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="96" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="96">
+        <v>89.820694757716012</v>
+      </c>
+      <c r="C9" s="96">
+        <v>1.3250787919059581</v>
+      </c>
+      <c r="D9" s="96">
+        <v>86.923283197957787</v>
+      </c>
+      <c r="E9" s="96">
+        <v>2.9055223531209595</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="96" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="96">
+        <v>-9.4728365704595223</v>
+      </c>
+      <c r="C10" s="96">
+        <v>1.3812082409000581</v>
+      </c>
+      <c r="D10" s="96">
+        <v>9.2596993540473758</v>
+      </c>
+      <c r="E10" s="96">
+        <v>-1.176356386131765</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="96" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11" s="96">
+        <v>137.98729578382549</v>
+      </c>
+      <c r="C11" s="96">
+        <v>3.3908910787254771</v>
+      </c>
+      <c r="D11" s="96">
+        <v>794.10706726299702</v>
+      </c>
+      <c r="E11" s="96">
+        <v>11.673111025438971</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="96" t="s">
+        <v>171</v>
+      </c>
+      <c r="B12" s="96">
+        <v>-136.43605765434648</v>
+      </c>
+      <c r="C12" s="96">
+        <v>6.9573700674811473E-2</v>
+      </c>
+      <c r="D12" s="96">
+        <v>-7.1759530719107865</v>
+      </c>
+      <c r="E12" s="96">
+        <v>-5.6894684144531933</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="96" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" s="96">
+        <v>1.5512381294789934</v>
+      </c>
+      <c r="C13" s="96">
+        <v>3.4604647794002887</v>
+      </c>
+      <c r="D13" s="96">
+        <v>786.93111419108618</v>
+      </c>
+      <c r="E13" s="96">
+        <v>5.9836426109857763</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="96" t="s">
+        <v>173</v>
+      </c>
+      <c r="B14" s="96">
+        <v>-139.76350380367398</v>
+      </c>
+      <c r="C14" s="96">
+        <v>77.5188568497761</v>
+      </c>
+      <c r="D14" s="96">
+        <v>1073.1978699815056</v>
+      </c>
+      <c r="E14" s="96">
+        <v>133.10630001714642</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="97" t="s">
+        <v>174</v>
+      </c>
+      <c r="B15" s="97">
+        <v>90</v>
+      </c>
+      <c r="C15" s="97">
+        <v>90</v>
+      </c>
+      <c r="D15" s="97">
+        <v>90</v>
+      </c>
+      <c r="E15" s="97">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>